--- a/Goodwill_schedule.xlsx
+++ b/Goodwill_schedule.xlsx
@@ -378,13 +378,13 @@
   </sheetPr>
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
     <col collapsed="false" hidden="false" max="26" min="2" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="true" max="27" min="27" style="1" width="0"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="6.0765306122449"/>

--- a/Goodwill_schedule.xlsx
+++ b/Goodwill_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="19">
   <si>
     <t xml:space="preserve">Master Schedule </t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">Part Time Associates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Hours</t>
@@ -379,12 +376,12 @@
   <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
     <col collapsed="false" hidden="false" max="26" min="2" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="true" max="27" min="27" style="1" width="0"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="6.0765306122449"/>
@@ -2562,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>15</v>
@@ -2656,7 +2653,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
